--- a/data/test5.xlsx
+++ b/data/test5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B46CFF-3DDB-4B6E-8459-4750E2BBD9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE0985-E900-4F60-98E0-00BA5D158452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="16270" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,7 +891,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1020,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
